--- a/data/trans_dic/P62-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P62-Edad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.01370969385114452</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.005821881770217569</v>
+        <v>0.005821881770217566</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.003056546913638417</v>
@@ -711,10 +711,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.002893312014806699</v>
+        <v>0.002701025013968705</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.003230772176264468</v>
+        <v>0.003245029399463754</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
@@ -723,25 +723,25 @@
         <v>0</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01443599488415808</v>
+        <v>0.01370645160849428</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.0194909757058842</v>
+        <v>0.02004657549554595</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.005647758726926515</v>
+        <v>0.005535677358956219</v>
       </c>
       <c r="K5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01081392213671533</v>
+        <v>0.01007359163524831</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01430681371338704</v>
+        <v>0.01438257225853774</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.003284485849983501</v>
+        <v>0.003071357553671413</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01477961611954181</v>
+        <v>0.02001560801875361</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.029286055211445</v>
+        <v>0.0268326049965117</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03396470820825592</v>
+        <v>0.03434908317147306</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.03075373218139923</v>
+        <v>0.02930962442596585</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.01540519955310578</v>
+        <v>0.01831147799485865</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.05254488424464576</v>
+        <v>0.05262207353541491</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.06403224424118233</v>
+        <v>0.06635230679820432</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.05825945497541419</v>
+        <v>0.0604465201391824</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.009187811701654024</v>
+        <v>0.01035440231276238</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.03194898258492856</v>
+        <v>0.03233655338255467</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.04018850458736577</v>
+        <v>0.03984838486737291</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.03170113058659412</v>
+        <v>0.03309869299643543</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.04516640598513458</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.07227789258092696</v>
+        <v>0.07227789258092697</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.03719340329548802</v>
@@ -833,7 +833,7 @@
         <v>0.05169039410948332</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.0821982423663032</v>
+        <v>0.08219824236630323</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01430727824299266</v>
+        <v>0.01343829279102248</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03279017240559843</v>
+        <v>0.03296008762298659</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03323555756715213</v>
+        <v>0.03448085142630247</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03422916531549301</v>
+        <v>0.04616406596511932</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02080775162053053</v>
+        <v>0.01727050846123726</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.04984923488055902</v>
+        <v>0.05021728151253577</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.02485317238788619</v>
+        <v>0.02361671533459921</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.03854846249715784</v>
+        <v>0.03708154022450047</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02160404324677036</v>
+        <v>0.02277606873348229</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.04846540400108271</v>
+        <v>0.04820530829236427</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.03446398084278152</v>
+        <v>0.034051141700395</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.04574860955106058</v>
+        <v>0.05180346839166299</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.07566665023231969</v>
+        <v>0.07161288676421979</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.09033465824468292</v>
+        <v>0.08448016613997822</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.09322029866512802</v>
+        <v>0.09831133415350234</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2023322215684779</v>
+        <v>0.2088503159207013</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.06746944126843173</v>
+        <v>0.06948185041213002</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1134805006237174</v>
+        <v>0.1120174443538452</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.07491503992452471</v>
+        <v>0.07113512356707373</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1208808817586086</v>
+        <v>0.1246006613601654</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.05933978771778407</v>
+        <v>0.05966736661074432</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.08886372530288938</v>
+        <v>0.08924432789180808</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.07177813492410461</v>
+        <v>0.07547516842449219</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1227772693001226</v>
+        <v>0.1297707436710544</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.08638149577817394</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.1289494432701595</v>
+        <v>0.1289494432701594</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.09768702196446952</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2481331884615642</v>
+        <v>0.2595355533896254</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1388877000220644</v>
+        <v>0.1330269800776147</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1013959123748253</v>
+        <v>0.09926794447715447</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1651037204669269</v>
+        <v>0.168906124708651</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.03112560164285524</v>
+        <v>0.03198246953962657</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.06666678937371298</v>
+        <v>0.06719994700666096</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.06039641032807869</v>
+        <v>0.06194980395938268</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.09390831428094674</v>
+        <v>0.09413464537644049</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.07134659240588473</v>
+        <v>0.07120868804522547</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1064119644696052</v>
+        <v>0.1012886621066518</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.08278178194215771</v>
+        <v>0.08166178891994984</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1278661585615423</v>
+        <v>0.127408386923172</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4753353996406942</v>
+        <v>0.4836052703096811</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2473525570620679</v>
+        <v>0.2416078619806498</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1988074936290422</v>
+        <v>0.1945995880426201</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3847204547699695</v>
+        <v>0.3799231285630575</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.07679645995344599</v>
+        <v>0.07797074432660672</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.132970857438597</v>
+        <v>0.1299645969690276</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.121577912475826</v>
+        <v>0.1209338111130272</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1704514562379334</v>
+        <v>0.170789580306042</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1246507132535747</v>
+        <v>0.1297985468850442</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1618738503485375</v>
+        <v>0.1587962786115298</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1360359372930465</v>
+        <v>0.1350253419292813</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2100745464399896</v>
+        <v>0.205379312932382</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.28806208194725</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.4042345070932769</v>
+        <v>0.404234507093277</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.11911106776232</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4504590800236339</v>
+        <v>0.447429058385202</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2517173477973007</v>
+        <v>0.2548986835721624</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2334654454058372</v>
+        <v>0.2328523787393176</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3292451272630913</v>
+        <v>0.3210097548620139</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.08869815886956744</v>
+        <v>0.08696037496714641</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1081249588982629</v>
+        <v>0.1090853193200892</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.08902339185931571</v>
+        <v>0.09332612981656078</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1322964131444588</v>
+        <v>0.1325021924063229</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1656080466202135</v>
+        <v>0.1666990410605771</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1730579639504747</v>
+        <v>0.1746648182349791</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1593908702875925</v>
+        <v>0.1606446337410503</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2113020316649124</v>
+        <v>0.2121068275193929</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6923527903200509</v>
+        <v>0.6749061282361499</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3718701971964488</v>
+        <v>0.3749832297800681</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3454074838355458</v>
+        <v>0.3453550896761468</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.4931809742268543</v>
+        <v>0.4929382785027289</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1585481500642953</v>
+        <v>0.1553720245534995</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1835331941531284</v>
+        <v>0.1840458525588814</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1593597485163726</v>
+        <v>0.1591449912553272</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2077812808238947</v>
+        <v>0.2047387409309242</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2412766642733949</v>
+        <v>0.2423477689585638</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2439651798645253</v>
+        <v>0.2453707061376</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2202681112517643</v>
+        <v>0.2234121633670725</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2922972911101663</v>
+        <v>0.2912241044247925</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7161649405443635</v>
+        <v>0.7169003257000137</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5861551043243389</v>
+        <v>0.5903983055083356</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.590034835896406</v>
+        <v>0.5899971168733646</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.5905009508944908</v>
+        <v>0.5879714568444655</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1965522517162819</v>
+        <v>0.1952425782004449</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2114539021203093</v>
+        <v>0.211996034140485</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.250000979422508</v>
+        <v>0.2469413772398516</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2835982001498185</v>
+        <v>0.2841315044149652</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.4152722105783417</v>
+        <v>0.4103086259828221</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.3807350015527971</v>
+        <v>0.3810980541204558</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.414261662137653</v>
+        <v>0.4129795904934348</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.4232201692905649</v>
+        <v>0.4243623923673094</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8270455484061404</v>
+        <v>0.8304191067340345</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.710859171471356</v>
+        <v>0.7127299325418029</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7027071498427883</v>
+        <v>0.6995070783357001</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.6971930525686149</v>
+        <v>0.6973515765252231</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2911039105994431</v>
+        <v>0.2868645717164447</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3092283409312243</v>
+        <v>0.3061599114934775</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3472115978249351</v>
+        <v>0.3462516186822781</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3577257916222826</v>
+        <v>0.3643202318998235</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.4963499369055364</v>
+        <v>0.4935738596331469</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.4658223300100202</v>
+        <v>0.4657569506513917</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.4908211351625858</v>
+        <v>0.4892711948688108</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.4901368679993693</v>
+        <v>0.4907381320791204</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.9849165810766826</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.8547805557858802</v>
+        <v>0.85478055578588</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.5221801951086817</v>
@@ -1377,7 +1377,7 @@
         <v>0.7998189051103408</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.7214408346242789</v>
+        <v>0.7214408346242788</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.9666162559676924</v>
+        <v>0.9663635301106088</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.9818142131672499</v>
+        <v>0.9815780055438381</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.9676681061510115</v>
+        <v>0.9670623758618261</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.8227180844116958</v>
+        <v>0.8236251674390587</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.4765470574829823</v>
+        <v>0.4707628700018848</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.5999825045417556</v>
+        <v>0.5964524149792333</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.584011250118469</v>
+        <v>0.5809881888503164</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.5649003853137109</v>
+        <v>0.5625502721725343</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.70164734811395</v>
+        <v>0.7041409877172645</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.7791371586734739</v>
+        <v>0.77775279554191</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.7680354766884954</v>
+        <v>0.7677258816055659</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.6981481142345807</v>
+        <v>0.6976782060232094</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.9945503241218419</v>
+        <v>0.9942067184606553</v>
       </c>
       <c r="D21" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9940333520045139</v>
+        <v>0.9941447400519779</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.8804023191895539</v>
+        <v>0.881359332165493</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.5730014938474325</v>
+        <v>0.5729194899527912</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.698690523519902</v>
+        <v>0.6975366237789683</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.6854974120868353</v>
+        <v>0.6845541818242071</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.6344049008700827</v>
+        <v>0.6322577416174078</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.7677442641243591</v>
+        <v>0.7703041262825017</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.8389681586392623</v>
+        <v>0.8408932039754071</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.8278046824721835</v>
+        <v>0.8281888597512845</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.7444876703882779</v>
+        <v>0.7470269557224234</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.9932852296351824</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.8809692144328779</v>
+        <v>0.8809692144328781</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.7430246267370453</v>
@@ -1501,7 +1501,7 @@
         <v>0.743731349730781</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.7572766546732145</v>
+        <v>0.7572766546732144</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.8397681004822508</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.972588829967108</v>
+        <v>0.971186611019343</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.9740080696729971</v>
+        <v>0.9804937122619952</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.9792496944235375</v>
+        <v>0.9756807932136627</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.8480529349847483</v>
+        <v>0.8496531899654149</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.6926273302355104</v>
+        <v>0.6873961249499387</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.721874366571234</v>
+        <v>0.7242258180587418</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.6934922410808321</v>
+        <v>0.6951996148068593</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.7227375116320585</v>
+        <v>0.727287824218764</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.8048152503543219</v>
+        <v>0.8019454050014281</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.8274498887950668</v>
+        <v>0.8280677165632232</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.8053084428207706</v>
+        <v>0.806985816165824</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.7839719469789002</v>
+        <v>0.7856131173093961</v>
       </c>
     </row>
     <row r="24">
@@ -1577,31 +1577,31 @@
         <v>1</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9086829812833903</v>
+        <v>0.9079955760198892</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.791940965616852</v>
+        <v>0.7908190176151229</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.8093649676508037</v>
+        <v>0.8133723178381709</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.7929365049265361</v>
+        <v>0.7921507872484175</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.7836227409139425</v>
+        <v>0.7829840195459545</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.8716734766988068</v>
+        <v>0.8699634482721191</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.8862447388515726</v>
+        <v>0.8831308909274299</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.8723107443391114</v>
+        <v>0.8708710524792299</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.8256974416736431</v>
+        <v>0.8273314599042966</v>
       </c>
     </row>
     <row r="25">
@@ -1637,7 +1637,7 @@
         <v>0.3018460071529139</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.3685193055784265</v>
+        <v>0.3685193055784266</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.3561388928180357</v>
@@ -1649,7 +1649,7 @@
         <v>0.3733026194381282</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.4451216008317878</v>
+        <v>0.4451216008317879</v>
       </c>
     </row>
     <row r="26">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.5214447426436543</v>
+        <v>0.5216836331317521</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.4165599947831586</v>
+        <v>0.4179888818832902</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.4434870773061729</v>
+        <v>0.4415732256726386</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.523467444680313</v>
+        <v>0.5222550828412503</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.2281610089964327</v>
+        <v>0.2304362384921742</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.2729106663099228</v>
+        <v>0.2732423443920264</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.2830251059357509</v>
+        <v>0.2799426836237374</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.3501033437173701</v>
+        <v>0.3514033627066935</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.3401447600039961</v>
+        <v>0.3409623327728866</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.3421935555380589</v>
+        <v>0.3414595838440916</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.3584695447151721</v>
+        <v>0.3589957819901721</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.4305830870206366</v>
+        <v>0.4316951990191983</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.571433094972482</v>
+        <v>0.5729991524108591</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.4624968442727683</v>
+        <v>0.4630271117155343</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.4862822079331806</v>
+        <v>0.4872965874936976</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.5803220499493489</v>
+        <v>0.5786813653468095</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.264224326911613</v>
+        <v>0.2647806373830752</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.3102045627229664</v>
+        <v>0.3085658548296076</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.3212726229862083</v>
+        <v>0.3207888197976912</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.3854488634138085</v>
+        <v>0.3866470633781927</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.3713513505623651</v>
+        <v>0.3711302646027516</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.3708792537051283</v>
+        <v>0.3695926601226737</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.3889988145367836</v>
+        <v>0.3887753130960044</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.4599490526034813</v>
+        <v>0.4620550453562696</v>
       </c>
     </row>
     <row r="28">
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1042</v>
+        <v>973</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1056</v>
+        <v>1061</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>0</v>
@@ -2026,25 +2026,25 @@
         <v>0</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>4916</v>
+        <v>4667</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>5628</v>
+        <v>5789</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1499</v>
+        <v>1469</v>
       </c>
       <c r="K6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>7577</v>
+        <v>7058</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>8810</v>
+        <v>8856</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>1861</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>4679</v>
+        <v>6337</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>10546</v>
+        <v>9663</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>11106</v>
+        <v>11232</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>9261</v>
+        <v>8826</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>4980</v>
+        <v>5920</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>17893</v>
+        <v>17919</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>18491</v>
+        <v>19161</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>15463</v>
+        <v>16043</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>5879</v>
+        <v>6625</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>22385</v>
+        <v>22657</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>24747</v>
+        <v>24538</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>17960</v>
+        <v>18752</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2493</v>
+        <v>2341</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>9848</v>
+        <v>9899</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>8091</v>
+        <v>8394</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>2731</v>
+        <v>3683</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>5910</v>
+        <v>4905</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>16351</v>
+        <v>16471</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>7071</v>
+        <v>6719</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>7011</v>
+        <v>6744</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>9900</v>
+        <v>10437</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>30453</v>
+        <v>30289</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>18195</v>
+        <v>17977</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>11970</v>
+        <v>13555</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>13182</v>
+        <v>12476</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>27131</v>
+        <v>25373</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>22694</v>
+        <v>23934</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>16141</v>
+        <v>16661</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>19162</v>
+        <v>19734</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>37222</v>
+        <v>36742</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>21313</v>
+        <v>20237</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>21986</v>
+        <v>22662</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>27191</v>
+        <v>27341</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>55837</v>
+        <v>56076</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>37895</v>
+        <v>39846</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>32125</v>
+        <v>33955</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>17287</v>
+        <v>18082</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>34926</v>
+        <v>33452</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>21110</v>
+        <v>20667</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>13238</v>
+        <v>13543</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>11964</v>
+        <v>12294</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>27755</v>
+        <v>27977</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>20718</v>
+        <v>21251</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>20932</v>
+        <v>20983</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>32396</v>
+        <v>32333</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>71061</v>
+        <v>67640</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>45632</v>
+        <v>45014</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>38754</v>
+        <v>38615</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>33117</v>
+        <v>33693</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>62202</v>
+        <v>60757</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>41391</v>
+        <v>40515</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>30847</v>
+        <v>30462</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>29520</v>
+        <v>29971</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>55359</v>
+        <v>54108</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>41705</v>
+        <v>41484</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>37993</v>
+        <v>38069</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>56599</v>
+        <v>58937</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>108099</v>
+        <v>106044</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>74987</v>
+        <v>74430</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>63669</v>
+        <v>62246</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>36409</v>
+        <v>36164</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>61638</v>
+        <v>62417</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>64682</v>
+        <v>64512</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>49452</v>
+        <v>48215</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>30577</v>
+        <v>29978</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>41357</v>
+        <v>41724</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>35064</v>
+        <v>36759</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>36894</v>
+        <v>36952</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>70475</v>
+        <v>70939</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>108569</v>
+        <v>109578</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>106940</v>
+        <v>107781</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>90665</v>
+        <v>91010</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>55961</v>
+        <v>54551</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>91059</v>
+        <v>91821</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>95696</v>
+        <v>95682</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>74075</v>
+        <v>74039</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>54656</v>
+        <v>53561</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>70200</v>
+        <v>70396</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>62768</v>
+        <v>62684</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>57945</v>
+        <v>57097</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>102676</v>
+        <v>103132</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>153054</v>
+        <v>153936</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>147784</v>
+        <v>149894</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>125418</v>
+        <v>124957</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>157993</v>
+        <v>158155</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>157087</v>
+        <v>158224</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>183094</v>
+        <v>183083</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>164351</v>
+        <v>163647</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>66599</v>
+        <v>66155</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>78461</v>
+        <v>78662</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>95825</v>
+        <v>94653</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>105301</v>
+        <v>105499</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>232322</v>
+        <v>229545</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>243309</v>
+        <v>243541</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>287336</v>
+        <v>286447</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>274935</v>
+        <v>275677</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>182455</v>
+        <v>183199</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>190507</v>
+        <v>191008</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>218058</v>
+        <v>217065</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>194046</v>
+        <v>194090</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>98636</v>
+        <v>97199</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>114741</v>
+        <v>113602</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>133086</v>
+        <v>132718</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>132824</v>
+        <v>135273</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>277680</v>
+        <v>276127</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>297684</v>
+        <v>297642</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>340438</v>
+        <v>339363</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>318406</v>
+        <v>318797</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>280333</v>
+        <v>280260</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>301191</v>
+        <v>301119</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>317603</v>
+        <v>317404</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>319143</v>
+        <v>319495</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>161294</v>
+        <v>159336</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>208937</v>
+        <v>207708</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>215260</v>
+        <v>214145</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>235856</v>
+        <v>234875</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>440971</v>
+        <v>442538</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>510342</v>
+        <v>509435</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>535169</v>
+        <v>534954</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>562310</v>
+        <v>561932</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>288435</v>
+        <v>288335</v>
       </c>
       <c r="D27" s="6" t="n">
         <v>306770</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>326257</v>
+        <v>326293</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>341520</v>
+        <v>341891</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>193940</v>
+        <v>193912</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>243311</v>
+        <v>242909</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>252666</v>
+        <v>252318</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>264875</v>
+        <v>263979</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>482511</v>
+        <v>484120</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>549532</v>
+        <v>550793</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>576817</v>
+        <v>577084</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>599633</v>
+        <v>601679</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>201727</v>
+        <v>201436</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>243357</v>
+        <v>244977</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>246863</v>
+        <v>245963</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>261524</v>
+        <v>262018</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>230530</v>
+        <v>228789</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>279292</v>
+        <v>280202</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>274770</v>
+        <v>275446</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>334027</v>
+        <v>336130</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>434799</v>
+        <v>433249</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>526878</v>
+        <v>527271</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>522086</v>
+        <v>523174</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>604090</v>
+        <v>605355</v>
       </c>
     </row>
     <row r="31">
@@ -3144,31 +3144,31 @@
         <v>252094</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>280221</v>
+        <v>280009</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>263585</v>
+        <v>263211</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>313142</v>
+        <v>314692</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>314171</v>
+        <v>313860</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>362166</v>
+        <v>361871</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>470919</v>
+        <v>469995</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>564315</v>
+        <v>562333</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>565524</v>
+        <v>564591</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>636242</v>
+        <v>637501</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>708822</v>
+        <v>709147</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>825377</v>
+        <v>828209</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>863166</v>
+        <v>859441</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>830169</v>
+        <v>828246</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>535389</v>
+        <v>540728</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>702346</v>
+        <v>703200</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>695754</v>
+        <v>688176</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>770248</v>
+        <v>773108</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>1260537</v>
+        <v>1263567</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>1558675</v>
+        <v>1555332</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>1578912</v>
+        <v>1581230</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>1630171</v>
+        <v>1634382</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>776774</v>
+        <v>778902</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>916397</v>
+        <v>917448</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>946459</v>
+        <v>948433</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>920335</v>
+        <v>917733</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>620013</v>
+        <v>621319</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>798323</v>
+        <v>794106</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>789777</v>
+        <v>788587</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>848010</v>
+        <v>850646</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>1376185</v>
+        <v>1375365</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>1689337</v>
+        <v>1683477</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>1713381</v>
+        <v>1712397</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>1741350</v>
+        <v>1749323</v>
       </c>
     </row>
     <row r="36">
